--- a/other/input/2021_wqx_data/miscellaneous/2021_sample_name_rectification.xlsx
+++ b/other/input/2021_wqx_data/miscellaneous/2021_sample_name_rectification.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="59">
   <si>
     <t>kwf_packing_list</t>
   </si>
@@ -38,6 +38,165 @@
   </si>
   <si>
     <t>als_inventory</t>
+  </si>
+  <si>
+    <t>RM 0 - No Name Creek</t>
+  </si>
+  <si>
+    <t>RM 0 - No Name Creek-DUPLICATE</t>
+  </si>
+  <si>
+    <t>RM 1.5 - Kenai City Dock</t>
+  </si>
+  <si>
+    <t>RM 6.5 - Cunningham Park</t>
+  </si>
+  <si>
+    <t>RM 10 - Beaver Creek</t>
+  </si>
+  <si>
+    <t>RM 10.1 - Kenai River</t>
+  </si>
+  <si>
+    <t>RM 12.5 - Pillars</t>
+  </si>
+  <si>
+    <t>RM 18 - Poachers Cove</t>
+  </si>
+  <si>
+    <t>RM 19 - Slikok Creek</t>
+  </si>
+  <si>
+    <t>RM 21 - Soldotna Bridge</t>
+  </si>
+  <si>
+    <t>RM 22 - Soldotna Creek</t>
+  </si>
+  <si>
+    <t>RM 23 - Swiftwater Park</t>
+  </si>
+  <si>
+    <t>RM 30 - Funny River</t>
+  </si>
+  <si>
+    <t>RM 31 - Morgan's Landing</t>
+  </si>
+  <si>
+    <t>RM 31 - Morgan's Landing-DUPLICATE</t>
+  </si>
+  <si>
+    <t>RM 36 - Moose River</t>
+  </si>
+  <si>
+    <t>RM 40 - Bing's Landing</t>
+  </si>
+  <si>
+    <t>RM 43 - Upstream of Dow Island</t>
+  </si>
+  <si>
+    <t>RM 44 - Mouth of Killey River</t>
+  </si>
+  <si>
+    <t>RM 50 - Skilak Lake Outflow</t>
+  </si>
+  <si>
+    <t>RM 70 - Jim's Landing</t>
+  </si>
+  <si>
+    <t>RM 74 - Russian River</t>
+  </si>
+  <si>
+    <t>RM 82 - Kenai Lake Bridge</t>
+  </si>
+  <si>
+    <t>RM 79.5 - Juneau Creek</t>
+  </si>
+  <si>
+    <t>Slikok Creek</t>
+  </si>
+  <si>
+    <t>Soldotna Bridge</t>
+  </si>
+  <si>
+    <t>Soldotna Creek</t>
+  </si>
+  <si>
+    <t>Swiftwater Park</t>
+  </si>
+  <si>
+    <t>Funny River</t>
+  </si>
+  <si>
+    <t>Morgan's Landing</t>
+  </si>
+  <si>
+    <t>Moose River</t>
+  </si>
+  <si>
+    <t>Upstream of Dow Island</t>
+  </si>
+  <si>
+    <t>Mouth of Killey River</t>
+  </si>
+  <si>
+    <t>Skilak Lake Outflow</t>
+  </si>
+  <si>
+    <t>Cunningham Park</t>
+  </si>
+  <si>
+    <t>Beaver Creek</t>
+  </si>
+  <si>
+    <t>Kenai River</t>
+  </si>
+  <si>
+    <t>Pillars</t>
+  </si>
+  <si>
+    <t>Poachers Cove</t>
+  </si>
+  <si>
+    <t>Jim's Landing</t>
+  </si>
+  <si>
+    <t>Russian River</t>
+  </si>
+  <si>
+    <t>Kenai Lake Bridge</t>
+  </si>
+  <si>
+    <t>Juneau Creek</t>
+  </si>
+  <si>
+    <t>Morgan's Landing (DUP)</t>
+  </si>
+  <si>
+    <t>No Name Creek</t>
+  </si>
+  <si>
+    <t>No Name Creek (DUP)</t>
+  </si>
+  <si>
+    <t>City of Kenai Dock</t>
+  </si>
+  <si>
+    <t>Bings Landing</t>
+  </si>
+  <si>
+    <t>RM 0 - No Name Creek DUP</t>
+  </si>
+  <si>
+    <t>RM 18 - Poacher's Cove</t>
+  </si>
+  <si>
+    <t>RM 31 - Morgan's Landing DUP</t>
+  </si>
+  <si>
+    <t>RM 43 - Upstream of Dow Isalnd</t>
+  </si>
+  <si>
+    <t>visually inispected, list checks out OK except for spaceing/dashes/grammer, dups not mis-assigned</t>
   </si>
 </sst>
 </file>
@@ -73,8 +232,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,20 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -392,8 +552,276 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
